--- a/Final/SummaryTable/Kidney_Summary_Stat.xlsx
+++ b/Final/SummaryTable/Kidney_Summary_Stat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\workplace2\AlaysisForPaperAll\TimePointSelection\Final\SummaryTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{64C4C78A-FCD8-49FB-9694-54D80D6A82D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C878BA1-0C3D-4AA9-8CB9-99EEBC2CFE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73C5890D-7F9F-4FE5-A175-BD8E50809408}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{73C5890D-7F9F-4FE5-A175-BD8E50809408}"/>
   </bookViews>
   <sheets>
     <sheet name="kidney_stat" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Labeling duration</t>
   </si>
@@ -44,6 +44,48 @@
   </si>
   <si>
     <t>Linear Approximation</t>
+  </si>
+  <si>
+    <t>0.79 [0.78,0.79]</t>
+  </si>
+  <si>
+    <t>0.77 [0.76,0.78]</t>
+  </si>
+  <si>
+    <t>0.88 [0.88,0.89]</t>
+  </si>
+  <si>
+    <t>0.87 [0.86,0.87]</t>
+  </si>
+  <si>
+    <t>0.90 [0.89,0.90]</t>
+  </si>
+  <si>
+    <t>0.88 [0.87,0.88]</t>
+  </si>
+  <si>
+    <t>0.83 [0.82,0.83]</t>
+  </si>
+  <si>
+    <t>0.83 [0.82,0.84]</t>
+  </si>
+  <si>
+    <t>0.82 [0.81,0.82]</t>
+  </si>
+  <si>
+    <t>0.81 [0.80,0.81]</t>
+  </si>
+  <si>
+    <t>0.66 [0.64,0.67]</t>
+  </si>
+  <si>
+    <t>0.66 [0.65,0.68]</t>
+  </si>
+  <si>
+    <t>0.55 [0.53,0.57]</t>
+  </si>
+  <si>
+    <t>0.56 [0.53,0.58]</t>
   </si>
 </sst>
 </file>
@@ -531,10 +573,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -914,7 +956,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A3" sqref="A3:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,48 +974,48 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -984,8 +1026,8 @@
       <c r="B3">
         <v>6410</v>
       </c>
-      <c r="C3">
-        <v>0.78500000000000003</v>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
       <c r="D3">
         <v>-0.35</v>
@@ -996,8 +1038,8 @@
       <c r="F3">
         <v>0.7</v>
       </c>
-      <c r="G3">
-        <v>0.77300000000000002</v>
+      <c r="G3" t="s">
+        <v>9</v>
       </c>
       <c r="H3">
         <v>-0.2</v>
@@ -1016,8 +1058,8 @@
       <c r="B4">
         <v>6639</v>
       </c>
-      <c r="C4">
-        <v>0.88400000000000001</v>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
       <c r="D4">
         <v>-0.14000000000000001</v>
@@ -1028,8 +1070,8 @@
       <c r="F4">
         <v>0.38</v>
       </c>
-      <c r="G4">
-        <v>0.86599999999999999</v>
+      <c r="G4" t="s">
+        <v>11</v>
       </c>
       <c r="H4">
         <v>0.03</v>
@@ -1048,8 +1090,8 @@
       <c r="B5">
         <v>6616</v>
       </c>
-      <c r="C5">
-        <v>0.89900000000000002</v>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
       <c r="D5">
         <v>-0.17</v>
@@ -1060,8 +1102,8 @@
       <c r="F5">
         <v>0.3</v>
       </c>
-      <c r="G5">
-        <v>0.877</v>
+      <c r="G5" t="s">
+        <v>13</v>
       </c>
       <c r="H5">
         <v>0.09</v>
@@ -1080,8 +1122,8 @@
       <c r="B6">
         <v>6374</v>
       </c>
-      <c r="C6">
-        <v>0.82499999999999996</v>
+      <c r="C6" t="s">
+        <v>14</v>
       </c>
       <c r="D6">
         <v>-0.26</v>
@@ -1092,8 +1134,8 @@
       <c r="F6">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G6">
-        <v>0.82899999999999996</v>
+      <c r="G6" t="s">
+        <v>15</v>
       </c>
       <c r="H6">
         <v>0.22</v>
@@ -1112,8 +1154,8 @@
       <c r="B7">
         <v>6412</v>
       </c>
-      <c r="C7">
-        <v>0.81599999999999995</v>
+      <c r="C7" t="s">
+        <v>16</v>
       </c>
       <c r="D7">
         <v>-0.15</v>
@@ -1124,8 +1166,8 @@
       <c r="F7">
         <v>0.27</v>
       </c>
-      <c r="G7">
-        <v>0.80500000000000005</v>
+      <c r="G7" t="s">
+        <v>17</v>
       </c>
       <c r="H7">
         <v>0.3</v>
@@ -1144,8 +1186,8 @@
       <c r="B8">
         <v>5376</v>
       </c>
-      <c r="C8">
-        <v>0.66</v>
+      <c r="C8" t="s">
+        <v>18</v>
       </c>
       <c r="D8">
         <v>-0.16</v>
@@ -1156,8 +1198,8 @@
       <c r="F8">
         <v>0.34</v>
       </c>
-      <c r="G8">
-        <v>0.66</v>
+      <c r="G8" t="s">
+        <v>19</v>
       </c>
       <c r="H8">
         <v>0.46</v>
@@ -1176,8 +1218,8 @@
       <c r="B9">
         <v>4440</v>
       </c>
-      <c r="C9">
-        <v>0.55100000000000005</v>
+      <c r="C9" t="s">
+        <v>20</v>
       </c>
       <c r="D9">
         <v>-0.25</v>
@@ -1188,8 +1230,8 @@
       <c r="F9">
         <v>0.41</v>
       </c>
-      <c r="G9">
-        <v>0.55500000000000005</v>
+      <c r="G9" t="s">
+        <v>21</v>
       </c>
       <c r="H9">
         <v>0.49</v>
